--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040615.894437328</v>
+        <v>1014159.008466807</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1918874.523826588</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4008798.132631243</v>
+        <v>2990033.63541173</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10374296.2231505</v>
+        <v>10794469.2273961</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>165.6817968080702</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>138.1355654433279</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>103.5280487491366</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.20988753395294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>66.21477322945429</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186275</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>340.0237825764901</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>107.429452808327</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.513456948084</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.9238585653898</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>28.07505500213011</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>67.62960647440822</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>169.17700531579</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.23851788996375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>74.18248383964597</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.90445977359174</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>57.64843562452423</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961707</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>124.5531556963742</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>165.6183461988014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>23.75848608105086</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>976.0491016702024</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>607.0865847297907</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>607.0865847297907</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>221.2983321315465</v>
       </c>
       <c r="F2" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>976.0491016702024</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1366.188433646013</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>997.2259167056015</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2361.369127247596</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.607341885688</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.607341885688</v>
+        <v>2092.422847177207</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.607341885688</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1366.188433646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1366.188433646013</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>550.5654064942404</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.944160717209</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D8" t="n">
-        <v>1188.678462110459</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="E8" t="n">
-        <v>802.8902095122144</v>
+        <v>949.7763040344662</v>
       </c>
       <c r="F8" t="n">
-        <v>391.9043047226068</v>
+        <v>538.7903992448587</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8265911430456</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>120.8265911430456</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240413</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261309</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1194.175505447095</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.175505447095</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>808.3872528488509</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4013480592434</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018223</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748109</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487029</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>534.5429807341669</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>841.8631140141283</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1171.725741678161</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>503.0396462065428</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>503.0396462065428</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>503.0396462065428</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>570.4247794971948</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>343.1165921657965</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036446</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036446</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036446</v>
+        <v>731.0291971045601</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>503.0396462065428</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>503.0396462065428</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247703</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.952954307291</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.952954307291</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090468</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194392</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>597.8010803716834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>308.6274700262513</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>1335.356817461549</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,25 +5533,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
         <v>265.3924131404652</v>
@@ -5664,31 +5664,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>895.8230080122524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>895.8230080122524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>895.8230080122524</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.091576844583</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4771.724756963824</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4547.93934175333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4547.93934175333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4547.93934175333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>4258.522171716369</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>4030.532620818352</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y22" t="n">
-        <v>3809.740041674822</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>142.8933815502924</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1312.9093652615</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1312.9093652615</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1312.9093652615</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1058.224877055613</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>768.8077070186521</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>540.8181561206347</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206347</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>385.5899330013834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.7973538578533</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6928,10 +6928,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,25 +7180,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507267</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507267</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507267</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507267</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1262.029898739552</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4096.248866878434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.250396089493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4317.041446021964</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4317.041446021964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4096.248866878434</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5026862907268</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>50.62661940943661</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>241.1942489336412</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22567,7 +22567,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>47.41997957426331</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663785</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>216.547476177355</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>112.9202716085212</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22944,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646987</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112.2111604889783</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>85.71654301540696</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23077,19 +23077,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23196,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047548</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.76038744430491</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>39.0045098382422</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>56.01837628787166</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>96.01048066168073</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.21378475843824</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>151.7569251798072</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>218.6077459241691</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>10.65497486614731</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>109.6822920936395</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7383261439573</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>43.51478569068026</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.5889167740531</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165253</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>73.36765428722903</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>60.09130919023576</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>143.488335017577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752713.4422151154</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752713.4422151153</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993665.8861845451</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165455</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="L2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
         <v>410580.5127245943</v>
@@ -26355,7 +26355,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>500180.5412663652</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130174.4719869591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>44802.65617556861</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414019.3729369771</v>
+        <v>-420087.7866827964</v>
       </c>
       <c r="C6" t="n">
-        <v>175948.5062775675</v>
+        <v>169880.092531748</v>
       </c>
       <c r="D6" t="n">
-        <v>175948.5062775674</v>
+        <v>169880.092531748</v>
       </c>
       <c r="E6" t="n">
-        <v>209576.1062775674</v>
+        <v>-243973.9244784736</v>
       </c>
       <c r="F6" t="n">
-        <v>209576.1062775673</v>
+        <v>281186.1119984218</v>
       </c>
       <c r="G6" t="n">
-        <v>-218019.8380082215</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="H6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.111998422</v>
       </c>
       <c r="I6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="J6" t="n">
-        <v>105737.4840655509</v>
+        <v>104762.8928058291</v>
       </c>
       <c r="K6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.111998422</v>
       </c>
       <c r="L6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="M6" t="n">
-        <v>282160.7032581439</v>
+        <v>146385.096764585</v>
       </c>
       <c r="N6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="O6" t="n">
-        <v>151986.2312711846</v>
+        <v>281186.1119984221</v>
       </c>
       <c r="P6" t="n">
-        <v>282160.7032581437</v>
+        <v>281186.1119984222</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>452.6387412370136</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>540.9263704990174</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990176</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>540.9263704990174</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>642.8663885318348</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>345.2951542341718</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>201.2020579973758</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014159.008466807</v>
+        <v>1036311.854486259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.63541173</v>
+        <v>3522967.675855583</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10794469.2273961</v>
+        <v>10574672.29878194</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.6817968080702</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>168.7756050755992</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>121.2547094525073</v>
       </c>
       <c r="D5" t="n">
-        <v>138.1355654433279</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -946,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.1332020905458</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>88.189619860029</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>66.21477322945429</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>35.4005622363242</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>107.429452808327</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>219.2320426560273</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>115.4906152060757</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>52.133065651397</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>161.9238585653898</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.07505500213011</v>
+        <v>136.826674379294</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.17700531579</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>69.81141881106822</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>45.21952718910648</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>81.77268178428241</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>143.3132934174606</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>47.20011114811118</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.5531556963742</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.0491016702024</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C2" t="n">
-        <v>607.0865847297907</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D2" t="n">
-        <v>607.0865847297907</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>221.2983321315465</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520779</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907094</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702024</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4421,31 +4421,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>513.840561024597</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1366.188433646013</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C5" t="n">
-        <v>997.2259167056015</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>857.6950425204218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177207</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646013</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.188433646013</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>635.1915732143555</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573122</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.56455663271</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.56455663271</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E8" t="n">
-        <v>949.7763040344662</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>538.7903992448587</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>120.8265911430456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>120.8265911430456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1614.312439187096</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1578.554295514042</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2391.05161122703</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2391.05161122703</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2000.912279251218</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341669</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141283</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678161</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2524.910283838376</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.0396462065428</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="C13" t="n">
-        <v>503.0396462065428</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D13" t="n">
-        <v>503.0396462065428</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045601</v>
+        <v>645.0396841050069</v>
       </c>
       <c r="X13" t="n">
-        <v>503.0396462065428</v>
+        <v>645.0396841050069</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.0396462065428</v>
+        <v>424.2471049614768</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>1825.601271524436</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>1456.638754584025</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1456.638754584025</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>2975.80620182545</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>2602.34044356437</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2212.201111588558</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>645.9611546560949</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>274.564550983152</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>274.564550983152</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>274.564550983152</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>126.6514574007589</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>126.6514574007589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V16" t="n">
-        <v>1335.356817461549</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="W16" t="n">
-        <v>1045.939647424588</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="X16" t="n">
-        <v>817.9500965265709</v>
+        <v>495.3571301266821</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.1575173830407</v>
+        <v>274.564550983152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
         <v>413.3055067228584</v>
@@ -5664,31 +5664,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229242</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.716970479394</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>612.6533566105697</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>462.536717198234</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>314.6236236158409</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>167.7336761179305</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305959</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>437.6964226305959</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>437.6964226305959</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>289.7833290482027</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>142.8933815502924</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305959</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,19 +6542,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6651,19 +6651,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6691,7 +6691,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822458</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>782.7991340754431</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="35">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>930.4499428210811</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,16 +7165,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7183,22 +7183,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>268.6754855415407</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1262.029898739552</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1038.244483529058</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1038.244483529058</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>783.5599953231707</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>494.1428252862101</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>360.5026862907268</v>
+        <v>145.318373890084</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814756</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162593248</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>182.034074286795</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>250.171704950085</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>241.1942489336412</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>117.5062691663785</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.0181823185002</v>
       </c>
       <c r="D5" t="n">
-        <v>216.547476177355</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,16 +22944,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>75.23878421646987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22962,7 +22962,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.45145126154895</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>266.493421760654</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>85.71654301540696</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1681237664919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23235,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>329.8723295346833</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>39.0045098382422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>67.29095568056368</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>266.4397548661861</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.7877109031734</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.21378475843824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.7569251798072</v>
+        <v>43.00530580264325</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.65497486614731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>96.68214965230936</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>121.2740412742711</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>92.830481864506</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>66.84279123392994</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>108.8243499063674</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.23385149845799</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.84084321165253</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>154.4576421095227</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>73.36765428722903</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993665.8861845451</v>
+        <v>867621.1222624922</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993665.8861845452</v>
+        <v>867621.1222624922</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>993665.8861845454</v>
+        <v>993665.8861845452</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845454</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993665.8861845452</v>
+        <v>993665.8861845451</v>
       </c>
     </row>
     <row r="14">
@@ -26322,16 +26322,16 @@
         <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
+        <v>354622.4384779896</v>
+      </c>
+      <c r="F2" t="n">
+        <v>354622.4384779895</v>
+      </c>
+      <c r="G2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="H2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245942</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245942</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
@@ -26340,7 +26340,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
         <v>410580.5127245943</v>
@@ -26349,13 +26349,13 @@
         <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="O2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>248146.7686188425</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659103</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>62453.05588965289</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
@@ -26444,22 +26444,22 @@
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420087.7866827964</v>
+        <v>-414626.214311559</v>
       </c>
       <c r="C6" t="n">
-        <v>169880.092531748</v>
+        <v>175341.6649029853</v>
       </c>
       <c r="D6" t="n">
-        <v>169880.092531748</v>
+        <v>175341.6649029853</v>
       </c>
       <c r="E6" t="n">
-        <v>-243973.9244784736</v>
+        <v>-3868.091839804533</v>
       </c>
       <c r="F6" t="n">
-        <v>281186.1119984218</v>
+        <v>244278.6767790377</v>
       </c>
       <c r="G6" t="n">
-        <v>281186.1119984221</v>
+        <v>18300.35486626116</v>
       </c>
       <c r="H6" t="n">
-        <v>281186.111998422</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="I6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="J6" t="n">
-        <v>104762.8928058291</v>
+        <v>105640.0249395785</v>
       </c>
       <c r="K6" t="n">
-        <v>281186.111998422</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="L6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321716</v>
       </c>
       <c r="M6" t="n">
-        <v>146385.096764585</v>
+        <v>219610.1882425188</v>
       </c>
       <c r="N6" t="n">
-        <v>281186.1119984221</v>
+        <v>282063.2441321717</v>
       </c>
       <c r="O6" t="n">
-        <v>281186.1119984221</v>
+        <v>212198.3592822604</v>
       </c>
       <c r="P6" t="n">
-        <v>281186.1119984222</v>
+        <v>282063.2441321716</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26764,10 +26764,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>215.7324361209767</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>250.6101663282005</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560241</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>642.8663885318348</v>
+        <v>306.4419220403464</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>109.7875025528264</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341718</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>389.1274892183196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
